--- a/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\서울IT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,23 +148,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>shop_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shop_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>item_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물. 성장하려면 4일 소요됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물. 심으면 12일 후 큰 콜리플라워를 생산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물. 성장하려면 10일 소요되지만, 수확한 후에도 계속 작물이 생산됩니다. 격자 구조물에 감겨 자랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물, 성장하려면 6일 소요됩니다. 낫으로 수확할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물. 성장하려면 6일 소요되며, 한번 수확할 때 여러 개 수확할 확률이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄에 심으세요. 7일 후 푸른 민들레 꽃이 핍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄에 심으세요. 6일 후 다채로운 꽃이핍니다. 여러가지 색이 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,12 +245,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,14 +273,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,48 +569,49 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="92.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -581,13 +619,13 @@
       <c r="C3" s="1">
         <v>1000</v>
       </c>
-      <c r="D3" s="1">
-        <v>20</v>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>22001</v>
+        <v>7001</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -595,13 +633,13 @@
       <c r="C4" s="1">
         <v>1001</v>
       </c>
-      <c r="D4" s="1">
-        <v>80</v>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>22002</v>
+        <v>7002</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -609,13 +647,13 @@
       <c r="C5" s="1">
         <v>1002</v>
       </c>
-      <c r="D5" s="1">
-        <v>60</v>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>22003</v>
+        <v>7003</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -623,13 +661,13 @@
       <c r="C6" s="1">
         <v>1003</v>
       </c>
-      <c r="D6" s="1">
-        <v>70</v>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>22004</v>
+        <v>7004</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -637,13 +675,13 @@
       <c r="C7" s="1">
         <v>1004</v>
       </c>
-      <c r="D7" s="1">
-        <v>50</v>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>22005</v>
+        <v>7005</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -651,13 +689,13 @@
       <c r="C8" s="1">
         <v>1005</v>
       </c>
-      <c r="D8" s="1">
-        <v>30</v>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>22006</v>
+        <v>7006</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -665,8 +703,8 @@
       <c r="C9" s="1">
         <v>1006</v>
       </c>
-      <c r="D9" s="1">
-        <v>20</v>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\서울IT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,7 +129,46 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>목장</t>
+          <t xml:space="preserve">목장
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>목공소</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물</t>
         </r>
       </text>
     </comment>
@@ -138,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +232,22 @@
   </si>
   <si>
     <t>봄에 심으세요. 6일 후 다채로운 꽃이핍니다. 여러가지 색이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작과 건설에 많이 사용되는 흔한 재료.</t>
+  </si>
+  <si>
+    <t>사용 용도가 다양한 유연하면서 견고한 식물 재료.</t>
+  </si>
+  <si>
+    <t>동물 사료로 사용되는 말린 잔디.</t>
+  </si>
+  <si>
+    <t>동물의 젖을 짤 때 사용합니다.</t>
+  </si>
+  <si>
+    <t>양으로부터 양털을 모을 때 사용합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +299,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -273,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,6 +771,76 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7007</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7008</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>7009</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4004</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>7010</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6006</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7011</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6007</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,64 +198,12 @@
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>item_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄 작물. 성장하려면 4일 소요됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄 작물. 심으면 12일 후 큰 콜리플라워를 생산합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄 작물. 성장하려면 10일 소요되지만, 수확한 후에도 계속 작물이 생산됩니다. 격자 구조물에 감겨 자랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄 작물, 성장하려면 6일 소요됩니다. 낫으로 수확할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄 작물. 성장하려면 6일 소요되며, 한번 수확할 때 여러 개 수확할 확률이 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄에 심으세요. 7일 후 푸른 민들레 꽃이 핍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄에 심으세요. 6일 후 다채로운 꽃이핍니다. 여러가지 색이 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작과 건설에 많이 사용되는 흔한 재료.</t>
-  </si>
-  <si>
-    <t>사용 용도가 다양한 유연하면서 견고한 식물 재료.</t>
-  </si>
-  <si>
-    <t>동물 사료로 사용되는 말린 잔디.</t>
-  </si>
-  <si>
-    <t>동물의 젖을 짤 때 사용합니다.</t>
-  </si>
-  <si>
-    <t>양으로부터 양털을 모을 때 사용합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,12 +247,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -320,12 +262,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -341,13 +298,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,11 +598,10 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,11 +611,8 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -669,176 +622,137 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>7000</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>1000</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>7001</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>1001</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>7002</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>1002</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>7003</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>1003</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>7004</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>1004</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7005</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>1005</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7006</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>1006</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>7007</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>4000</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>7008</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>4001</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>7009</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>4004</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>7010</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>6006</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>7011</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>6007</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
@@ -587,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -755,6 +755,83 @@
         <v>6007</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>7012</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>7013</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>7014</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>7015</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>7016</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>7017</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>7018</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9009</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/shop_data.xlsx
@@ -587,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -832,6 +832,17 @@
         <v>9009</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>7019</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9010</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
